--- a/test1.xlsx
+++ b/test1.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>27093,92</t>
+          <t>26808,47</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="4" ht="12.8" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>4,2754</t>
+          <t>4,255</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="23" ht="12.8" customHeight="1" s="2">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>1556,3</t>
+          <t>1560,43</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
     <row r="45" ht="12.8" customHeight="1" s="2">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>1667,36</t>
+          <t>1,232</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
@@ -716,12 +716,12 @@
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>gbp</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>eur</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1" s="3" t="inlineStr">
@@ -781,20 +781,12 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Arkusz3</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
+      <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr"/>
+      <c r="G2" s="3" t="inlineStr"/>
+      <c r="H2" s="3" t="inlineStr"/>
+      <c r="I2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr"/>
       <c r="K2" s="3" t="n"/>
       <c r="L2" s="3" t="n"/>
       <c r="M2" s="3" t="n"/>
@@ -820,20 +812,12 @@
           <t>A3</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>A45</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>A45</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="n"/>
       <c r="L3" s="3" t="n"/>
       <c r="M3" s="3" t="n"/>
@@ -986,7 +970,7 @@
     <row r="45" ht="12.8" customHeight="1" s="2">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>94,53</t>
+          <t>1,063</t>
         </is>
       </c>
     </row>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
